--- a/tut06/output/2001ME71.xlsx
+++ b/tut06/output/2001ME71.xlsx
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,9 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
